--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3276428.958415539</v>
+        <v>3272123.835418469</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>158.9209832102734</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>116.8405921356969</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>11.43227683362262</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.53591563393001</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>196.6974108683415</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>345.8893442161201</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760039</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425904</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>63.27341041299221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>89.72490574397023</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937513</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.811433473811695</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304047</v>
+        <v>30.24193919304048</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589152</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.17063318532592</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>304.4292701719802</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>228.7039907975098</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>31.85352702118796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.52615597052887</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>144.2957156879721</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881313</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.974274198339</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,22 +1660,22 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784672</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>106.1798850986046</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560513</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977355</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.7621441121394</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>86.80636739625365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784705</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>220.7930342327019</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634828</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>110.1270172505059</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722637</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>155.0136892434276</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.799772605716562</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.88943397770137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63637568893625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>99.17988875728723</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123822</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433421</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.9702682325468</v>
+        <v>544.7425907613597</v>
       </c>
       <c r="C3" t="n">
-        <v>475.9702682325468</v>
+        <v>544.7425907613597</v>
       </c>
       <c r="D3" t="n">
-        <v>475.9702682325468</v>
+        <v>395.8081811001084</v>
       </c>
       <c r="E3" t="n">
-        <v>475.9702682325468</v>
+        <v>236.5707260946529</v>
       </c>
       <c r="F3" t="n">
-        <v>329.4357102594318</v>
+        <v>90.03616812153788</v>
       </c>
       <c r="G3" t="n">
-        <v>191.8965290818809</v>
+        <v>90.03616812153788</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>90.03616812153788</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296058</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264281</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T3" t="n">
-        <v>665.3900532490316</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U3" t="n">
-        <v>475.9702682325468</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V3" t="n">
-        <v>475.9702682325468</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="W3" t="n">
-        <v>475.9702682325468</v>
+        <v>544.7425907613597</v>
       </c>
       <c r="X3" t="n">
-        <v>475.9702682325468</v>
+        <v>544.7425907613597</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.9702682325468</v>
+        <v>544.7425907613597</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.719899701277</v>
+        <v>776.6749856400843</v>
       </c>
       <c r="C5" t="n">
-        <v>1101.719899701277</v>
+        <v>776.6749856400843</v>
       </c>
       <c r="D5" t="n">
-        <v>743.4542010945268</v>
+        <v>776.6749856400843</v>
       </c>
       <c r="E5" t="n">
-        <v>743.4542010945268</v>
+        <v>390.88673304184</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>383.9412322926366</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017216</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746979</v>
+        <v>277.9807166746974</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030763</v>
+        <v>521.204941603076</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709184</v>
+        <v>823.5081935709179</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582752</v>
@@ -4591,28 +4591,28 @@
         <v>1727.902815837885</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540653</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="T5" t="n">
-        <v>1491.859231677089</v>
+        <v>1516.04348097432</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.859231677089</v>
+        <v>1516.04348097432</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.859231677089</v>
+        <v>1516.04348097432</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.859231677089</v>
+        <v>1163.274825704206</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.859231677089</v>
+        <v>1163.274825704206</v>
       </c>
       <c r="Y5" t="n">
-        <v>1101.719899701277</v>
+        <v>1163.274825704206</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437.6979949232122</v>
+        <v>607.8141681877937</v>
       </c>
       <c r="C6" t="n">
-        <v>373.785459152513</v>
+        <v>433.3611389066667</v>
       </c>
       <c r="D6" t="n">
-        <v>224.8510494912617</v>
+        <v>284.4267292454155</v>
       </c>
       <c r="E6" t="n">
-        <v>224.8510494912617</v>
+        <v>125.18927423996</v>
       </c>
       <c r="F6" t="n">
-        <v>78.31649151814672</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814672</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814672</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478754</v>
+        <v>61.66788464787539</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806065</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189982</v>
+        <v>399.872217118998</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223506</v>
+        <v>668.6238185223503</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352487</v>
+        <v>958.8971200352485</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
         <v>1378.176233639509</v>
@@ -4673,25 +4673,25 @@
         <v>1445.87866090655</v>
       </c>
       <c r="S6" t="n">
-        <v>1303.087768902146</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="T6" t="n">
-        <v>1107.547150621901</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="U6" t="n">
-        <v>1107.547150621901</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="V6" t="n">
-        <v>1107.547150621901</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="W6" t="n">
-        <v>853.309793893699</v>
+        <v>1191.641304178348</v>
       </c>
       <c r="X6" t="n">
-        <v>645.4582936881661</v>
+        <v>983.7898039728157</v>
       </c>
       <c r="Y6" t="n">
-        <v>437.6979949232122</v>
+        <v>776.0295052078618</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.1054696430612</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="C7" t="n">
-        <v>65.1054696430612</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="D7" t="n">
-        <v>65.1054696430612</v>
+        <v>359.9085107233647</v>
       </c>
       <c r="E7" t="n">
-        <v>65.1054696430612</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="F7" t="n">
-        <v>65.1054696430612</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="G7" t="n">
-        <v>65.1054696430612</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="H7" t="n">
-        <v>65.1054696430612</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="I7" t="n">
-        <v>65.1054696430612</v>
+        <v>65.10546964306121</v>
       </c>
       <c r="J7" t="n">
-        <v>34.5580563167577</v>
+        <v>34.55805631675769</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574697</v>
+        <v>64.24066662574694</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584117</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347974</v>
+        <v>206.9680378347973</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195369</v>
+        <v>287.8841338195368</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193472</v>
+        <v>342.3101561934719</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858008</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040922</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="R7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="S7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="T7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="U7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="V7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="W7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8980487865913</v>
+        <v>369.8190495858007</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.1054696430612</v>
+        <v>369.8190495858007</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.078251196131</v>
+        <v>824.6114411906398</v>
       </c>
       <c r="C8" t="n">
-        <v>1199.078251196131</v>
+        <v>824.6114411906398</v>
       </c>
       <c r="D8" t="n">
-        <v>840.8125525893806</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E8" t="n">
-        <v>840.8125525893806</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>429.8266477997731</v>
+        <v>55.35983779428171</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794702</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457211</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457211</v>
+        <v>1937.445694785956</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.544009457211</v>
+        <v>1584.677039515841</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.078251196131</v>
+        <v>1211.211281254762</v>
       </c>
       <c r="Y8" t="n">
-        <v>1199.078251196131</v>
+        <v>1211.211281254762</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>697.1363614504008</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>522.6833321692739</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907032</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835207</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1627.262386835207</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1399.160796968471</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1366.985517149089</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1112.748160420888</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>904.8966602153548</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>697.1363614504008</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809311</v>
+        <v>506.6265632319841</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809311</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809311</v>
+        <v>208.5968302372552</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809311</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514533</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235355</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>189.122444707762</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>189.122444707762</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>189.122444707762</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809311</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.109063871873</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516141</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438182</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998425</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192504</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5816,43 +5816,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6247,25 +6247,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1465.362586952987</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.284195611859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6730,22 +6730,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.1035305473703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>746.1673476194634</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>596.0507082071276</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E34" t="n">
-        <v>596.0507082071276</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424045</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7165,58 +7165,58 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,37 +7390,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,31 +7429,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7608,13 +7608,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836018</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556949</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138415</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.25407754796453</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>127.7255247667956</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>109.4223302771048</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.44045370237419</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>31.34460909112607</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>35.2940307724253</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>24.81829093850968</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>131.6952193743934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>231.8866226476547</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.43558426092513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700103.3209317884</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.939721005</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253125</v>
+        <v>270592.3620253129</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231935</v>
+        <v>115410.0540231928</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742643</v>
+        <v>601443.2075742657</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854447</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588198</v>
+        <v>62913.63765881985</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197496</v>
+        <v>27875.25362197478</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
         <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186724</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186748</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26441,25 +26441,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186725</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186725</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>76435.73471936819</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-187941.6748887337</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068282</v>
+        <v>185305.0732068275</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098916</v>
+        <v>364125.4669098927</v>
       </c>
       <c r="E6" t="n">
-        <v>9039.506280966627</v>
+        <v>8692.127026608414</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552309</v>
+        <v>610135.334600874</v>
       </c>
       <c r="G6" t="n">
-        <v>610482.7138552312</v>
+        <v>610135.334600874</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552302</v>
+        <v>610135.334600874</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.3346008738</v>
       </c>
       <c r="J6" t="n">
-        <v>561417.769126686</v>
+        <v>561070.3898723295</v>
       </c>
       <c r="K6" t="n">
-        <v>547569.0761964112</v>
+        <v>547221.696942054</v>
       </c>
       <c r="L6" t="n">
-        <v>582607.4602332562</v>
+        <v>582260.080978899</v>
       </c>
       <c r="M6" t="n">
-        <v>453336.3333036332</v>
+        <v>452988.9540492757</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.3346008736</v>
       </c>
       <c r="O6" t="n">
-        <v>610482.7138552307</v>
+        <v>610135.3346008738</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552308</v>
+        <v>610135.3346008738</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950618</v>
+        <v>758.8996292950617</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26752,7 +26752,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>431.9757039594712</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-9.754633882251034e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-2.966615459035109e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-5.559897370086095e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821571</v>
+        <v>210.4296883821575</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262301</v>
+        <v>94.81103524262244</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039887</v>
+        <v>514.2648358039901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931515</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666927</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.593331373486</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666927</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734862</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931513</v>
+        <v>244.4501167931515</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666927</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.593331373486</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>206.3519085607341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>237.8424494849861</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988682</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27463,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>183.9773209583786</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377097</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1590675269896</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377783</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482801</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>210.17863487337</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>66.36254051792929</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276004</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425906</v>
       </c>
       <c r="S5" t="n">
         <v>139.4987618372555</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>109.4350885753235</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>55.34430664941365</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -27715,7 +27715,7 @@
         <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937514</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074792</v>
+        <v>44.33060630074793</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>157.4353876248161</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589153</v>
       </c>
       <c r="R7" t="n">
-        <v>69.58968333129644</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>107.4414646716465</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>99.04826767262509</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>172.4862383660574</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>200.9470601282373</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.720665128099</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28070,7 +28070,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>107.8419276358559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-2.729336756601696e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29337,10 +29337,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6.379141014064721e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.414636683656336e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29562,10 +29562,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-8.300560239149491e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>-9.281837992243618e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-2.300444591937274e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-8.526512829121203e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29994,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.722277791350223e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-8.526512829121205e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.526512829121205e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-8.526512829121205e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-8.526512829121205e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30501,7 +30501,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,25 +31281,25 @@
         <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286704</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
         <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511778</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968101</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610698</v>
+        <v>544.3712888610697</v>
       </c>
       <c r="O5" t="n">
         <v>514.0343715191491</v>
@@ -31314,7 +31314,7 @@
         <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.52130774898984</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920254</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
         <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062487</v>
+        <v>56.20152915062486</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475937</v>
@@ -31384,7 +31384,7 @@
         <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872491</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
         <v>208.3680642547498</v>
@@ -31396,7 +31396,7 @@
         <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378882</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757163</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635565</v>
+        <v>96.75348224635563</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260801</v>
@@ -31469,16 +31469,16 @@
         <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054712</v>
+        <v>61.53307486054711</v>
       </c>
       <c r="S7" t="n">
         <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830802</v>
+        <v>5.847259438830801</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656353</v>
+        <v>0.07464586517656352</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181837</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32323,31 +32323,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860836</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>638.0665277849404</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760386</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,19 +32785,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,34 +33496,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198411</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
         <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695374</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644789</v>
+        <v>314.9582252644788</v>
       </c>
       <c r="O5" t="n">
         <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308269</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.1520883890162</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.8732253923148</v>
       </c>
       <c r="M6" t="n">
         <v>271.4662640437903</v>
@@ -35029,13 +35029,13 @@
         <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993001</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
         <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872829</v>
+        <v>68.38629016872827</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554472</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501486</v>
+        <v>68.57507023501483</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230884</v>
+        <v>75.59399159230881</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876157</v>
+        <v>81.73343028761568</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569202</v>
+        <v>54.97578017569199</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235234</v>
+        <v>27.78676100235231</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>101.8925903961654</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640653</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>506.724815701607</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961645</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36454,7 +36454,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37797,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3272123.835418469</v>
+        <v>3273884.365721254</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8088979.934727983</v>
+        <v>8088979.934727984</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.8405921356969</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663196</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663196</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.1169391876617</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>53.53591563393001</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>33.45395220683886</v>
       </c>
       <c r="G5" t="n">
-        <v>345.8893442161201</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.8578877276008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425972</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>89.72490574397023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246137</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937533</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074829</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>146.6103718881538</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>9.811433473811695</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>135.0439723130861</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304048</v>
+        <v>30.24193919304081</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>269.3968352920082</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>228.7039907975098</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>100.1704039223644</v>
       </c>
       <c r="T9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.52615597052887</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>9.854692234072745</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881313</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.974274198339</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784708</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701402</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977355</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>173.2052365248857</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.0136892434276</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>42.7612371907953</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>82.85993176807962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>259.714563821984</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>115.2707447515121</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>511.8624171433421</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="C2" t="n">
-        <v>511.8624171433421</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062745</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062745</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897901</v>
+        <v>28.23218154912183</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4336,46 +4336,46 @@
         <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644751</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123822</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433421</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433421</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433421</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433421</v>
+        <v>603.4370373477805</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433421</v>
+        <v>603.4370373477805</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433421</v>
+        <v>603.4370373477805</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433421</v>
+        <v>414.0172523312954</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>544.7425907613597</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>544.7425907613597</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>395.8081811001084</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>236.5707260946529</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>90.03616812153788</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>90.03616812153788</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153788</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296058</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198748</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198748</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198748</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198748</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W3" t="n">
-        <v>544.7425907613597</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X3" t="n">
-        <v>544.7425907613597</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="Y3" t="n">
-        <v>544.7425907613597</v>
+        <v>181.8429936158256</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.6749856400843</v>
+        <v>964.3500712064049</v>
       </c>
       <c r="C5" t="n">
-        <v>776.6749856400843</v>
+        <v>964.3500712064049</v>
       </c>
       <c r="D5" t="n">
-        <v>776.6749856400843</v>
+        <v>964.3500712064049</v>
       </c>
       <c r="E5" t="n">
-        <v>390.88673304184</v>
+        <v>578.5618186081606</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9412322926366</v>
+        <v>544.7699476921617</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675769</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675769</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675746</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746974</v>
+        <v>277.9807166746955</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603076</v>
+        <v>521.2049416030727</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709179</v>
+        <v>823.5081935709127</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582745</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079231</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.822248332748</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837873</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540641</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837885</v>
+        <v>1703.718566540641</v>
       </c>
       <c r="T5" t="n">
-        <v>1516.04348097432</v>
+        <v>1703.718566540641</v>
       </c>
       <c r="U5" t="n">
-        <v>1516.04348097432</v>
+        <v>1703.718566540641</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.04348097432</v>
+        <v>1703.718566540641</v>
       </c>
       <c r="W5" t="n">
-        <v>1163.274825704206</v>
+        <v>1350.949911270527</v>
       </c>
       <c r="X5" t="n">
-        <v>1163.274825704206</v>
+        <v>1350.949911270527</v>
       </c>
       <c r="Y5" t="n">
-        <v>1163.274825704206</v>
+        <v>1350.949911270527</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607.8141681877937</v>
+        <v>942.0027569437835</v>
       </c>
       <c r="C6" t="n">
-        <v>433.3611389066667</v>
+        <v>767.5497276626566</v>
       </c>
       <c r="D6" t="n">
-        <v>284.4267292454155</v>
+        <v>618.6153180014053</v>
       </c>
       <c r="E6" t="n">
-        <v>125.18927423996</v>
+        <v>459.3778629959497</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675769</v>
+        <v>312.8433050228347</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675769</v>
+        <v>175.7613181367945</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>78.31649151814668</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675746</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787539</v>
+        <v>61.66788464787462</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806048</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189953</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223463</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352485</v>
+        <v>958.8971200352428</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228312</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639501</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906541</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.87866090655</v>
+        <v>1401.100270703765</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.87866090655</v>
+        <v>1258.30937869936</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.87866090655</v>
+        <v>1110.218093963852</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.87866090655</v>
+        <v>1110.218093963852</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.87866090655</v>
+        <v>1110.218093963852</v>
       </c>
       <c r="W6" t="n">
-        <v>1191.641304178348</v>
+        <v>1110.218093963852</v>
       </c>
       <c r="X6" t="n">
-        <v>983.7898039728157</v>
+        <v>1110.218093963852</v>
       </c>
       <c r="Y6" t="n">
-        <v>776.0295052078618</v>
+        <v>1110.218093963852</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="C7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="D7" t="n">
-        <v>359.9085107233647</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="E7" t="n">
-        <v>211.9954171409716</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306121</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306121</v>
+        <v>201.5135224845624</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.1054696430613</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306121</v>
+        <v>65.1054696430613</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675746</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574617</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584101</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347951</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195339</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.3101561934683</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858007</v>
+        <v>369.8190495857966</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824.6114411906398</v>
+        <v>334.4233539899582</v>
       </c>
       <c r="C8" t="n">
-        <v>824.6114411906398</v>
+        <v>62.30533854348526</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838893</v>
+        <v>62.30533854348526</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>62.30533854348526</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428171</v>
+        <v>55.35983779428179</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232725</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.445694785956</v>
+        <v>1837.396939561086</v>
       </c>
       <c r="W8" t="n">
-        <v>1584.677039515841</v>
+        <v>1484.628284290972</v>
       </c>
       <c r="X8" t="n">
-        <v>1211.211281254762</v>
+        <v>1111.162526029892</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.211281254762</v>
+        <v>721.02319405408</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>794.9915800697038</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>620.5385507885768</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>471.6041411273255</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>312.36668612187</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809305</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809305</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809305</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562341</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1633.05607278846</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1633.05607278846</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1633.05607278846</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1633.05607278846</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1378.818716060259</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1170.967215854726</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>963.2069170897719</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="C10" t="n">
-        <v>506.6265632319841</v>
+        <v>351.3531641126934</v>
       </c>
       <c r="D10" t="n">
-        <v>356.5099238196483</v>
+        <v>201.2365247003577</v>
       </c>
       <c r="E10" t="n">
-        <v>208.5968302372552</v>
+        <v>53.32343111796459</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406003</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803938</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069459</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951537</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998295</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000582</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5983,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510509</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6928,13 +6928,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111719</v>
@@ -6943,46 +6943,46 @@
         <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,28 +7186,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192633</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2263.482284124065</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2043.880819147006</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409392984</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667956</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.81829093850968</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>182.9484181982419</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>26.80843451460697</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>65.75554125013252</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317887</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253129</v>
+        <v>270592.3620253088</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231928</v>
+        <v>115410.0540231969</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742657</v>
+        <v>601443.2075742645</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881985</v>
+        <v>62913.63765881892</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197478</v>
+        <v>27875.25362197584</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515983</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263471</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186724</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186728</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26444,22 +26444,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186725</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186725</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936819</v>
+        <v>76435.73471936796</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587231</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187941.6748887337</v>
+        <v>-187941.6748887342</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068275</v>
+        <v>185305.0732068317</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098927</v>
+        <v>364125.4669098885</v>
       </c>
       <c r="E6" t="n">
-        <v>8692.127026608414</v>
+        <v>9004.768355530483</v>
       </c>
       <c r="F6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="G6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="H6" t="n">
-        <v>610135.334600874</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="I6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="J6" t="n">
-        <v>561070.3898723295</v>
+        <v>561383.0312012504</v>
       </c>
       <c r="K6" t="n">
-        <v>547221.696942054</v>
+        <v>547534.3382709763</v>
       </c>
       <c r="L6" t="n">
-        <v>582260.080978899</v>
+        <v>582572.7223078192</v>
       </c>
       <c r="M6" t="n">
-        <v>452988.9540492757</v>
+        <v>453301.5953781974</v>
       </c>
       <c r="N6" t="n">
-        <v>610135.3346008736</v>
+        <v>610447.9759297951</v>
       </c>
       <c r="O6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="P6" t="n">
-        <v>610135.3346008738</v>
+        <v>610447.9759297952</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950617</v>
+        <v>758.8996292950591</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594682</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261641</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,28 +26810,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.754633882251034e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.966615459035109e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.559897370086095e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821575</v>
+        <v>210.4296883821542</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262244</v>
+        <v>94.81103524262585</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039901</v>
+        <v>514.2648358039891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.450116793148</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666959</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373486</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.450116793148</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666959</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734862</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.450116793148</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666959</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373486</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971604</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>237.8424494849861</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753918</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637384</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.6353192824732</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>1.36064647377259</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>198.1590675269896</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715727</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -27545,25 +27545,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213437</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482801</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>373.4220935348726</v>
       </c>
       <c r="G5" t="n">
-        <v>66.36254051792929</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276004</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425906</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372558</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>55.34430664941365</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937514</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074793</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>46.97484020928891</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>157.4353876248161</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>15.01592417057367</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589153</v>
+        <v>36.91115760589193</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166226</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>95.87605647899932</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>99.04826767262509</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>37.40460997093481</v>
       </c>
       <c r="T9" t="n">
-        <v>172.4862383660574</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.720665128099</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.5663557888585</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.729336756601696e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.300444591937274e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.526512829121203e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29994,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.722277791350223e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.526512829121205e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.526512829121205e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.526512829121205e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-8.526512829121205e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-5.871232860595138e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085662</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429355</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428051</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286695</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520256</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511761</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968082</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610697</v>
+        <v>544.3712888610679</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191473</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860949</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634645</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098724</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898984</v>
+        <v>69.5213077489896</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920249</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868529</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030882</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.7650658840351</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062486</v>
+        <v>56.20152915062467</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475931</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316622</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721878</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658072</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468652</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374441</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.707283587248</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547491</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.3201880194771</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378859</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236992</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377981</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734518</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635563</v>
+        <v>96.7534822463553</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260795</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162524</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399131</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528482</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275341</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514994</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235539</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054711</v>
+        <v>61.5330748605469</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391193</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830801</v>
+        <v>5.847259438830781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656352</v>
+        <v>0.07464586517656327</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>144.2373595085334</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>638.0665277849404</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.8914117019832</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070451</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811888</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695355</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644788</v>
+        <v>314.958225264477</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974605</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308269</v>
+        <v>207.4834477308254</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890162</v>
+        <v>107.1520883890151</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092643</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573032</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923148</v>
+        <v>215.8732253923136</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437888</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635319</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.7813799929996</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.7328761729177</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872827</v>
+        <v>68.38629016872756</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554415</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501483</v>
+        <v>68.57507023501412</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230881</v>
+        <v>75.59399159230807</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761568</v>
+        <v>81.73343028761496</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569199</v>
+        <v>54.97578017569134</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235231</v>
+        <v>27.78676100235174</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>506.724815701607</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
